--- a/macro analysis/A2-0908.xlsx
+++ b/macro analysis/A2-0908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasborn/Desktop/analysis/ASCAM/macro analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C68A4AE-4F23-474F-BCAF-4F21CFDECE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC374928-D3AE-914C-8E93-314AF44E81B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1440" windowWidth="24600" windowHeight="15280" activeTab="6" xr2:uid="{26444931-4892-1D4A-BC65-AC3562C8D436}"/>
+    <workbookView xWindow="5300" yWindow="1440" windowWidth="24600" windowHeight="15280" activeTab="4" xr2:uid="{26444931-4892-1D4A-BC65-AC3562C8D436}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="12" r:id="rId1"/>
@@ -14190,8 +14190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312FC0DC-2B70-FF40-BC35-7F48828EDBA2}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14243,10 +14243,6 @@
         <f>kinetics!H25</f>
         <v>1.62</v>
       </c>
-      <c r="F2">
-        <f>kinetics!P25</f>
-        <v>-131.69880963633994</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="84">
@@ -14373,10 +14369,6 @@
         <f>kinetics!H30</f>
         <v>0.39</v>
       </c>
-      <c r="F7">
-        <f>kinetics!P30</f>
-        <v>-10.236920271675002</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="84">
@@ -14398,10 +14390,6 @@
       <c r="E8" s="25">
         <f>kinetics!H31</f>
         <v>0.85</v>
-      </c>
-      <c r="F8">
-        <f>kinetics!P31</f>
-        <v>-7.1712461330869584</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -14946,7 +14934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29EA99-855F-5441-B3C0-B65D3CE5F2EF}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
